--- a/biology/Biologie cellulaire et moléculaire/Bernard_de_Massy/Bernard_de_Massy.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bernard_de_Massy/Bernard_de_Massy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Robert de Massy[1],[2] dit Bernard de Massy est un chercheur français en biologie moléculaire. Il exerce à l'Institut de génétique humaine de Montpellier où il est responsable de l'équipe de recherche Méiose et recombinaison[3]. Il est membre de l'Organisation européenne de biologie moléculaire (EMBO)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Robert de Massy, dit Bernard de Massy est un chercheur français en biologie moléculaire. Il exerce à l'Institut de génétique humaine de Montpellier où il est responsable de l'équipe de recherche Méiose et recombinaison. Il est membre de l'Organisation européenne de biologie moléculaire (EMBO).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Médaille d'argent du CNRS (2012)[5]
-Prix de Mme Jules Martin, née Louise Basset de l'Académie des sciences (2011)[6]
-Lauréat d'une ERC Advanced Grant 2010[7]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Médaille d'argent du CNRS (2012)
+Prix de Mme Jules Martin, née Louise Basset de l'Académie des sciences (2011)
+Lauréat d'une ERC Advanced Grant 2010</t>
         </is>
       </c>
     </row>
